--- a/target/test-classes/Test_Results.xlsx
+++ b/target/test-classes/Test_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\java\resources\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="263">
   <si>
     <t>Thời gian</t>
   </si>
@@ -819,11 +819,27 @@
   <si>
     <t>Lỗi Exception</t>
   </si>
+  <si>
+    <t>2025-05-22 08:51:06</t>
+  </si>
+  <si>
+    <t>2025-05-22 08:51:29</t>
+  </si>
+  <si>
+    <t>2025-05-22 08:51:42</t>
+  </si>
+  <si>
+    <t>2025-05-22 08:52:12</t>
+  </si>
+  <si>
+    <t>2025-05-22 08:52:24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1147,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -1155,3610 +1171,3710 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="47.6328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="C33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D34" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="C35" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="C38" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D39" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="C40" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="C43" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="D44" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="C45" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="C48" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D49" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="C50" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="D52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="C53" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="D54" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="C55" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="D57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="C58" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="D59" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="C60" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="D62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="C63" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="D64" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C65" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="C65" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="D67" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="C68" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="D69" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="C70" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="D72" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="C73" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="D74" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C75" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="C75" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C76" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="D77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="C78" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="D79" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="C80" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F80" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C81" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="D82" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="C83" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D84" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="D84" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F84" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="C85" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F85" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C86" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="D87" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="C88" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D89" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="D89" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C90" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="C90" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C91" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="D92" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="C93" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D94" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="D94" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C95" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="C95" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C96" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="D97" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="C98" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="B99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="D99" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C100" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="C100" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="C101" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="B102" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="B102" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="C103" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C104" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="D105" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="C106" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D107" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="D107" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F107" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C108" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="C108" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F108" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="C109" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="B110" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="B110" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="C111" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C112" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="D113" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="C114" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D115" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="D115" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C116" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="C116" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="A117" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="C117" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="A118" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="B118" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="B118" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="A119" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="C119" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="A120" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C120" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="A121" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D121" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="D121" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="C122" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B123" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D123" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="D123" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="A124" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C124" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" t="s">
-        <v>16</v>
-      </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="C124" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F124" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" t="s">
-        <v>16</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="C125" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="A126" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="B126" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" t="s">
-        <v>16</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="B126" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="C127" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C128" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="E129" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C130" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="E130" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B131" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B131" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E131" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="E131" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F131" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C132" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="C132" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E132" t="s">
-        <v>18</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="E132" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F132" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C133" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="E133" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="E133" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="B134" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="B134" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="E134" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C135" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="C135" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="E135" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="E136" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="A137" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="C137" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E137" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="E137" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="A138" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="B138" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B138" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E138" t="s">
-        <v>18</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="E138" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F138" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="A139" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C139" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C139" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E139" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="E139" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F139" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="A140" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C140" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="E140" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="E140" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="A141" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B141" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="B141" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="E141" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="E141" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="A142" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="C142" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="E142" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="A143" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="E143" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="E143" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="A144" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C144" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C144" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D144" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="E144" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="A145" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B145" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="E145" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F145" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="A146" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C146" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C146" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E146" t="s">
-        <v>18</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="E146" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F146" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="A147" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C147" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="C147" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="E147" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="E147" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="A148" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B148" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="B148" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="E148" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="A149" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="C149" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="E149" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="E149" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="A150" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="E150" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="A151" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C151" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="C151" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E151" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="E151" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="A152" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="B152" t="s">
-        <v>16</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B152" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C152" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E152" t="s">
-        <v>18</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="E152" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F152" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="A153" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C153" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="C153" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E153" t="s">
-        <v>18</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="E153" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F153" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="A154" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="C154" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="E154" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="A155" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B155" t="s">
-        <v>14</v>
-      </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="B155" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="E155" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="E155" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="A156" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="C156" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="E156" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F156" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="A157" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D157" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="D157" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E157" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+      <c r="A158" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="C158" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F158" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="A159" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="B159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B159" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D159" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" t="s">
-        <v>18</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="D159" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E159" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F159" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="A160" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C160" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" t="s">
-        <v>18</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="C160" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F160" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="A161" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="C161" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F161" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="A162" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="B162" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="B162" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F162" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="A163" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="C163" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E163" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F163" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="A164" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="C164" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="A165" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D165" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="D165" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E165" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F165" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="A166" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C166" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="C166" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F166" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+      <c r="A167" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B167" t="s">
-        <v>16</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="B167" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C167" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="D167" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E167" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F167" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="A168" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" t="s">
-        <v>16</v>
-      </c>
-      <c r="E168" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" t="s">
+      <c r="C168" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E168" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F168" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="A169" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" t="s">
-        <v>16</v>
-      </c>
-      <c r="E169" t="s">
-        <v>10</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="C169" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E169" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F169" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="A170" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="B170" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" t="s">
-        <v>16</v>
-      </c>
-      <c r="E170" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="B170" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E170" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="A171" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C171" t="s">
-        <v>14</v>
-      </c>
-      <c r="D171" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" t="s">
-        <v>10</v>
-      </c>
-      <c r="F171" t="s">
+      <c r="C171" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="A172" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C172" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="C172" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D172" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="A173" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D173" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="D173" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="A174" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C174" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" t="s">
-        <v>10</v>
-      </c>
-      <c r="E174" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="C174" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E174" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="A175" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="B175" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B175" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C175" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175" t="s">
-        <v>18</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="D175" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E175" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F175" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="A176" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C176" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176" t="s">
-        <v>18</v>
-      </c>
-      <c r="F176" t="s">
+      <c r="C176" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="A177" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C177" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="C177" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E177" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="A178" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="B178" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" t="s">
-        <v>10</v>
-      </c>
-      <c r="E178" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="B178" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E178" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="A179" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C179" t="s">
-        <v>14</v>
-      </c>
-      <c r="D179" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179" t="s">
-        <v>10</v>
-      </c>
-      <c r="F179" t="s">
+      <c r="C179" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="A180" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C180" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="C180" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D180" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E183" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F183" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E184" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F184" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E185" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F185" t="s" s="0">
         <v>23</v>
       </c>
     </row>
@@ -4777,189 +4893,189 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.453125"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="44.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>23</v>
       </c>
     </row>
@@ -4979,1142 +5095,1142 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="A21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="A29" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="A37" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="C38" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="A45" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="C46" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="A53" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="C54" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="0">
         <v>23</v>
       </c>
     </row>
@@ -6132,192 +6248,192 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>11</v>
       </c>
     </row>

--- a/target/test-classes/Test_Results.xlsx
+++ b/target/test-classes/Test_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D7E1F-395F-4B7B-97DC-BAB1D4C26339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A638482-EF2E-49BE-92BC-D75FCEFC1BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="311">
   <si>
     <t>Thời gian</t>
   </si>
@@ -814,6 +814,9 @@
     <t>Ghi chú</t>
   </si>
   <si>
+    <t>Mã giảm giá</t>
+  </si>
+  <si>
     <t>KQ mong muốn</t>
   </si>
   <si>
@@ -862,9 +865,23 @@
     <t>Vui lòng nhập email</t>
   </si>
   <si>
+    <t>Vui lòng nhập email; Vui lòng nhập email</t>
+  </si>
+  <si>
     <t>Vui lòng nhập số điện thoại</t>
   </si>
   <si>
+    <t>Exception: element click intercepted: Element &lt;span class="spinner-label"&gt;...&lt;/span&gt; is not clickable at point (1176, 200). Other element would receive the click: &lt;div style="width: 100%; height: 100%; position: fixed; top: 0px; left: 0px; z-index: 2000000000; background-color: rgb(255, 255, 255); opacity: 0.05;"&gt;&lt;/div&gt;
+  (Session info: chrome=137.0.7151.68)
+Build info: version: '4.31.0', revision: '1ef9f18787*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [24c2959ab47279f82a776d05fd337c6e, clickElement {id=f.5F4D7F5479EF2658590064B33BFD0D9F.d.EC0774EDE0373B44CD6F5B50BCF71D74.e.1174}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.68, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Dell\AppData\Local...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50018}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50018/devtoo..., se:cdpVersion: 137.0.7151.68, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (24c2959ab47279f82a776d05fd337c6e)] -&gt; xpath: (//span[@class='spinner-label'][contains(text(),'ĐẶT HÀNG')])[2]]
+Session ID: 24c2959ab47279f82a776d05fd337c6e</t>
+  </si>
+  <si>
     <t>1.234235676E9</t>
   </si>
   <si>
@@ -877,31 +894,110 @@
     <t>014235678</t>
   </si>
   <si>
-    <t>01142356791</t>
-  </si>
-  <si>
-    <t>Vui lòng chọn Tỉnh</t>
-  </si>
-  <si>
-    <t>Exception: Không thể chọn phương thức vận chuyển: Ship Nhanh - Ninja Van</t>
-  </si>
-  <si>
-    <t>01142356792</t>
+    <t>Bạn chưa chọn Tỉnh thành</t>
+  </si>
+  <si>
+    <t>Bạn cần chọn phương thức thanh toán; Bạn cần chọn phương thức thanh toán</t>
   </si>
   <si>
     <t>Vui lòng chọn Huyện</t>
   </si>
   <si>
-    <t>01142356793</t>
+    <t>Khu vực không hỗ trợ vận chuyển; Bạn cần chọn phương thức thanh toán</t>
   </si>
   <si>
     <t>Vui lòng chọn Xã</t>
   </si>
   <si>
-    <t>01142356794</t>
-  </si>
-  <si>
     <t>Vui lòng chọn hình thức thanh toán</t>
+  </si>
+  <si>
+    <t>SALE</t>
+  </si>
+  <si>
+    <t>Mã khuyến mãi không hợp lệ</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Thị xã Sơn Tây</t>
+  </si>
+  <si>
+    <t>Phường Phú Thịnh</t>
+  </si>
+  <si>
+    <t>Ship Nhanh - J&amp;T Express</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:16:13.264280</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập họ tên; Không tìm thấy phương thức vận chuyển; Bạn cần chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:17:07.810296400</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:17:51.701426500</t>
+  </si>
+  <si>
+    <t>Exception: element click intercepted: Element &lt;span class="spinner-label"&gt;...&lt;/span&gt; is not clickable at point (1176, 202). Other element would receive the click: &lt;td class="total-line__price"&gt;...&lt;/td&gt;
+  (Session info: chrome=137.0.7151.68)
+Build info: version: '4.31.0', revision: '1ef9f18787*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5fe0fb89b2797663c78e4bcc9bd9afa0, clickElement {id=f.6B649567EC30355C4F5C93F0BADA958A.d.A97C27B027C1DA3C90C72CDA8066F0F4.e.1155}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.68, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Dell\AppData\Local...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51586}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51586/devtoo..., se:cdpVersion: 137.0.7151.68, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (5fe0fb89b2797663c78e4bcc9bd9afa0)] -&gt; xpath: (//span[@class='spinner-label'][contains(text(),'ĐẶT HÀNG')])[2]]
+Session ID: 5fe0fb89b2797663c78e4bcc9bd9afa0</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:18:13.455755900</t>
+  </si>
+  <si>
+    <t>0123423@676</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:19:07.134874800</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:20:00.749380700</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:20:54.370006900</t>
+  </si>
+  <si>
+    <t>Bạn chưa chọn tỉnh thành</t>
+  </si>
+  <si>
+    <t>Bạn cần chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:22:24.677981500</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:23:48.537170700</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:25:17.720633900</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:26:11.299390</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:27:27.501758400</t>
+  </si>
+  <si>
+    <t>Exception: Expected condition failed: waiting for element to be clickable: By.xpath: (//button[@id='btn-proceed-checkout'])[2] (tried for 10 second(s) with 500 milliseconds interval)
+Build info: version: '4.31.0', revision: '1ef9f18787*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.68, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Dell\AppData\Local...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54096}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:54096/devtoo..., se:cdpVersion: 137.0.7151.68, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bd5b04f7058a5edfa45c5fdf86bbe3bf</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:51:00.621989</t>
   </si>
 </sst>
 </file>
@@ -5258,7 +5354,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5613,21 +5709,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="30.453125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="65.08984375"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.453125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="255.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>247</v>
       </c>
@@ -5662,843 +5756,1115 @@
         <v>257</v>
       </c>
       <c r="L1" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="M1" t="s" s="0">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="B13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="D13" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="F13" t="s" s="0">
         <v>263</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="G13" t="s" s="0">
         <v>264</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="H13" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="I13" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="J13" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I14" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="J14" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="L14" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>268</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>272</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>273</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>275</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="L7" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>276</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>277</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>279</v>
-      </c>
-      <c r="L9" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>280</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>281</v>
-      </c>
-      <c r="K10" t="s" s="0">
-        <v>279</v>
-      </c>
-      <c r="L10" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>282</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>283</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>279</v>
-      </c>
-      <c r="L11" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>284</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>285</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="L12" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>258</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>259</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="K13" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>268</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="K14" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="L14" t="s" s="0">
-        <v>23</v>
+      <c r="M14" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>23</v>
+        <v>267</v>
+      </c>
+      <c r="M15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s" s="0">
+        <v>292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>11</v>
+        <v>293</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s" s="0">
+        <v>294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>23</v>
+        <v>272</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="N17" t="s" s="0">
+        <v>295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s" s="0">
         <v>274</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>23</v>
+        <v>296</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s" s="0">
+        <v>297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>23</v>
+        <v>277</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>299</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>11</v>
+        <v>277</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s" s="0">
+        <v>300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>11</v>
+        <v>277</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="N21" t="s" s="0">
+        <v>301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>11</v>
+        <v>303</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="N22" t="s" s="0">
+        <v>304</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="N23" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="N25" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="N26" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="J23" t="s" s="0">
-        <v>285</v>
-      </c>
-      <c r="K23" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="L23" t="s" s="0">
-        <v>11</v>
+      <c r="L27" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="M27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s" s="0">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Test_Results.xlsx
+++ b/target/test-classes/Test_Results.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D500D2-4FE4-4109-A6B5-3B6992B68E49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9CE2EA-86BC-44F4-8053-B87278C85E9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="3" r:id="rId1"/>
     <sheet name="ChangePassword" sheetId="6" r:id="rId2"/>
     <sheet name="OrderTest" sheetId="7" r:id="rId3"/>
+    <sheet name="Login" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="208">
   <si>
     <t>Fail</t>
   </si>
@@ -486,11 +487,213 @@
   <si>
     <t>2025-06-17T00:21:06.747999700</t>
   </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Thông tin 1</t>
+  </si>
+  <si>
+    <t>Thông tin 2</t>
+  </si>
+  <si>
+    <t>Kết quả thực tế</t>
+  </si>
+  <si>
+    <t>Kết quả mong muốn</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>2025-06-17 01:38:37</t>
+  </si>
+  <si>
+    <t>ngthiquyen102@gmail.com</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>Thông tin đăng nhập không chính xác.</t>
+  </si>
+  <si>
+    <t>2025-06-17 01:38:49</t>
+  </si>
+  <si>
+    <t>ngthiquyen@gmail</t>
+  </si>
+  <si>
+    <t>2025-06-17 01:38:50</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
+  </si>
+  <si>
+    <t>2025-06-17 01:38:51</t>
+  </si>
+  <si>
+    <t>2025-06-17 01:38:52</t>
+  </si>
+  <si>
+    <t>ngthiquyen102@mail.com</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới dài từ 6 đến 50 ký tự | Xác nhận mật khẩu không khớp</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:17:17.190542100</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:17:17.641097</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:17:17.742007800</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:17:17.818858600</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:17:17.888007</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:17:17.948543900</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:17:17.999397800</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:17:18.050323100</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:18:11.890878700</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:18:21.989782800</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:18:36.724010700</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:18:45.324678300</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:19:00.063784800</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:19:07.460048200</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:19:07.560317400</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:19:07.582060200</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:22:43.687691200</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:22:46.971277900</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:23:01.188842400</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:23:15.305740900</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:23:35.304531800</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:23:48.686560</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:24:01.561305500</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:24:25.086703700</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:25:36.342011400</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:25:36.871598300</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:25:36.969726100</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:25:37.049028400</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:25:37.113080900</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:25:37.179414700</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:25:37.237728300</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:25:37.284842600</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:26:32.222767900</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:26:48.384947400</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:27:03.986182500</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:27:19.018980100</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:27:34.188186600</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:27:48.786031100</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:27:48.849785200</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:27:48.899065800</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:27:48.968068600</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:29:07.705023600</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:29:25.200745600</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:29:42.749261700</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:30:00.149898400</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:30:17.082878400</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:30:33.682173</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:30:50.999075800</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:31:17.648540900</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -810,477 +1013,477 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.453125"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="44.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s" s="0">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s" s="0">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s" s="0">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>140</v>
       </c>
     </row>
@@ -1291,355 +1494,1643 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="56.90625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
-        <v>5</v>
+      <c r="F17" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1651,2216 +3142,2354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.453125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="255.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="M15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="M16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="M17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="M17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="M18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="M18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M21" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="M21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="M22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="M22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J23" t="s">
-        <v>2</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="M25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="M26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J27" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J27" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="M27" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="M27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="J28" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M28" t="s">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="M28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M29" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="M29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="J30" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="M30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="M30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s" s="0">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J31" t="s">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="J31" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="M31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="J32" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="M32" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="M32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="J33" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M33" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="M33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s" s="0">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="J34" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M34" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="M34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="J35" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="L35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="L35" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s" s="0">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="J36" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="M36" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s" s="0">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="J37" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M37" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="M38" t="s">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="M38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s" s="0">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="M39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="J40" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M40" t="s">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="M40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="J41" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K41" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M41" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="M41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="J42" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="M42" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="M42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="J43" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="M43" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="M43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="J44" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M44" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="M44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J45" t="s">
-        <v>2</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="J45" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M45" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="M45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J46" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K46" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="M46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J47" t="s">
-        <v>2</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="J47" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="L47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M47" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="L47" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s" s="0">
         <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J48" t="s">
-        <v>2</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="J48" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="M48" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="M48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F49" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J49" t="s">
-        <v>2</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="J49" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="M49" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="M49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H50" t="s">
-        <v>2</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J50" t="s">
-        <v>2</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="J50" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="M50" t="s">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="M50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s" s="0">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="M51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="32.6328125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Test_Results.xlsx
+++ b/target/test-classes/Test_Results.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9CE2EA-86BC-44F4-8053-B87278C85E9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D78939-C804-4D66-B320-23BDB958E643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="216">
   <si>
     <t>Fail</t>
   </si>
@@ -688,12 +688,35 @@
   <si>
     <t>2025-06-17T12:31:17.648540900</t>
   </si>
+  <si>
+    <t>2025-06-17T12:33:58.183287800</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:34:16.595842100</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:34:33.464367300</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:34:50.697628200</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:35:07.811880500</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:35:25.828332800</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:35:42.513097100</t>
+  </si>
+  <si>
+    <t>2025-06-17T12:36:09.228514400</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1013,477 +1036,477 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="44.0"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s" s="0">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s" s="0">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s" s="0">
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s" s="0">
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s" s="0">
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s" s="0">
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s" s="0">
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s" s="0">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s" s="0">
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>132</v>
       </c>
-      <c r="D27" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s" s="0">
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="D28" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s" s="0">
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>136</v>
       </c>
-      <c r="D29" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s" s="0">
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="D30" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s" s="0">
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>138</v>
       </c>
-      <c r="D31" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s" s="0">
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1494,1643 +1517,1827 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="56.90625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.26953125"/>
+    <col min="4" max="4" width="56.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s" s="0">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s" s="0">
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>154</v>
       </c>
-      <c r="F20" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s" s="0">
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>154</v>
       </c>
-      <c r="F21" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s" s="0">
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s" s="0">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>154</v>
       </c>
-      <c r="F22" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s" s="0">
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>158</v>
       </c>
-      <c r="F23" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s" s="0">
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>29</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s" s="0">
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>31</v>
       </c>
-      <c r="F25" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s" s="0">
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s" s="0">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>22</v>
       </c>
-      <c r="F27" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s" s="0">
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s" s="0">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="D28" t="s">
         <v>154</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>22</v>
       </c>
-      <c r="F28" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s" s="0">
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s" s="0">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="D29" t="s">
         <v>154</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="F29" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s" s="0">
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s" s="0">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s" s="0">
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
         <v>154</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>22</v>
       </c>
-      <c r="F30" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s" s="0">
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s" s="0">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>22</v>
       </c>
-      <c r="F31" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s" s="0">
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s" s="0">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>30</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>22</v>
       </c>
-      <c r="F32" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s" s="0">
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s" s="0">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>22</v>
       </c>
-      <c r="F33" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s" s="0">
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>20</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>21</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>21</v>
       </c>
-      <c r="F34" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s" s="0">
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s" s="0">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="E35" t="s">
         <v>23</v>
       </c>
-      <c r="F35" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G35" t="s" s="0">
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s" s="0">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="C36" t="s">
         <v>24</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D36" t="s">
         <v>154</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="E36" t="s">
         <v>22</v>
       </c>
-      <c r="F36" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s" s="0">
+      <c r="F36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s" s="0">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" t="s" s="0">
+      <c r="D37" t="s">
         <v>154</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="E37" t="s">
         <v>154</v>
       </c>
-      <c r="F37" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s" s="0">
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s" s="0">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>19</v>
       </c>
-      <c r="C38" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s" s="0">
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
         <v>154</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="E38" t="s">
         <v>22</v>
       </c>
-      <c r="F38" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s" s="0">
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s" s="0">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
         <v>26</v>
       </c>
-      <c r="C39" t="s" s="0">
+      <c r="C39" t="s">
         <v>27</v>
       </c>
-      <c r="D39" t="s" s="0">
+      <c r="D39" t="s">
         <v>28</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="E39" t="s">
         <v>22</v>
       </c>
-      <c r="F39" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s" s="0">
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s" s="0">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="C40" t="s">
         <v>29</v>
       </c>
-      <c r="D40" t="s" s="0">
+      <c r="D40" t="s">
         <v>30</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="E40" t="s">
         <v>22</v>
       </c>
-      <c r="F40" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s" s="0">
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s" s="0">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s" s="0">
+      <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="D41" t="s">
         <v>31</v>
       </c>
-      <c r="E41" t="s" s="0">
+      <c r="E41" t="s">
         <v>22</v>
       </c>
-      <c r="F41" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s" s="0">
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="B42" t="s">
         <v>20</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="C42" t="s">
         <v>20</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>21</v>
       </c>
-      <c r="E42" t="s" s="0">
+      <c r="E42" t="s">
         <v>21</v>
       </c>
-      <c r="F42" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s" s="0">
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s" s="0">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s" s="0">
+      <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" t="s" s="0">
+      <c r="D43" t="s">
         <v>23</v>
       </c>
-      <c r="E43" t="s" s="0">
+      <c r="E43" t="s">
         <v>22</v>
       </c>
-      <c r="F43" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s" s="0">
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s" s="0">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s" s="0">
+      <c r="D44" t="s">
         <v>154</v>
       </c>
-      <c r="E44" t="s" s="0">
+      <c r="E44" t="s">
         <v>154</v>
       </c>
-      <c r="F44" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s" s="0">
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s" s="0">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" t="s" s="0">
+      <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="E45" t="s" s="0">
+      <c r="E45" t="s">
         <v>154</v>
       </c>
-      <c r="F45" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s" s="0">
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s" s="0">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="C46" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="0">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
         <v>154</v>
       </c>
-      <c r="E46" t="s" s="0">
+      <c r="E46" t="s">
         <v>22</v>
       </c>
-      <c r="F46" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s" s="0">
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s" s="0">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>26</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="C47" t="s">
         <v>27</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="D47" t="s">
         <v>28</v>
       </c>
-      <c r="E47" t="s" s="0">
+      <c r="E47" t="s">
         <v>158</v>
       </c>
-      <c r="F47" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s" s="0">
+      <c r="F47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s" s="0">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>29</v>
       </c>
-      <c r="C48" t="s" s="0">
+      <c r="C48" t="s">
         <v>29</v>
       </c>
-      <c r="D48" t="s" s="0">
+      <c r="D48" t="s">
         <v>30</v>
       </c>
-      <c r="E48" t="s" s="0">
+      <c r="E48" t="s">
         <v>30</v>
       </c>
-      <c r="F48" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G48" t="s" s="0">
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s" s="0">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>19</v>
       </c>
-      <c r="C49" t="s" s="0">
+      <c r="C49" t="s">
         <v>19</v>
       </c>
-      <c r="D49" t="s" s="0">
+      <c r="D49" t="s">
         <v>31</v>
       </c>
-      <c r="E49" t="s" s="0">
+      <c r="E49" t="s">
         <v>31</v>
       </c>
-      <c r="F49" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s" s="0">
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>19</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B50" t="s">
         <v>20</v>
       </c>
-      <c r="C50" t="s" s="0">
+      <c r="C50" t="s">
         <v>20</v>
       </c>
-      <c r="D50" t="s" s="0">
+      <c r="D50" t="s">
         <v>21</v>
       </c>
-      <c r="E50" t="s" s="0">
+      <c r="E50" t="s">
         <v>22</v>
       </c>
-      <c r="F50" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s" s="0">
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s" s="0">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>20</v>
       </c>
-      <c r="C51" t="s" s="0">
+      <c r="C51" t="s">
         <v>19</v>
       </c>
-      <c r="D51" t="s" s="0">
+      <c r="D51" t="s">
         <v>23</v>
       </c>
-      <c r="E51" t="s" s="0">
+      <c r="E51" t="s">
         <v>22</v>
       </c>
-      <c r="F51" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s" s="0">
+      <c r="F51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s" s="0">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="C52" t="s" s="0">
+      <c r="C52" t="s">
         <v>24</v>
       </c>
-      <c r="D52" t="s" s="0">
+      <c r="D52" t="s">
         <v>154</v>
       </c>
-      <c r="E52" t="s" s="0">
+      <c r="E52" t="s">
         <v>22</v>
       </c>
-      <c r="F52" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s" s="0">
+      <c r="F52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s" s="0">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
         <v>25</v>
       </c>
-      <c r="D53" t="s" s="0">
+      <c r="D53" t="s">
         <v>154</v>
       </c>
-      <c r="E53" t="s" s="0">
+      <c r="E53" t="s">
         <v>22</v>
       </c>
-      <c r="F53" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s" s="0">
+      <c r="F53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s" s="0">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
         <v>19</v>
       </c>
-      <c r="C54" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s" s="0">
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
         <v>154</v>
       </c>
-      <c r="E54" t="s" s="0">
+      <c r="E54" t="s">
         <v>22</v>
       </c>
-      <c r="F54" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s" s="0">
+      <c r="F54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s" s="0">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
         <v>26</v>
       </c>
-      <c r="C55" t="s" s="0">
+      <c r="C55" t="s">
         <v>27</v>
       </c>
-      <c r="D55" t="s" s="0">
+      <c r="D55" t="s">
         <v>28</v>
       </c>
-      <c r="E55" t="s" s="0">
+      <c r="E55" t="s">
         <v>22</v>
       </c>
-      <c r="F55" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s" s="0">
+      <c r="F55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s" s="0">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
         <v>29</v>
       </c>
-      <c r="C56" t="s" s="0">
+      <c r="C56" t="s">
         <v>29</v>
       </c>
-      <c r="D56" t="s" s="0">
+      <c r="D56" t="s">
         <v>30</v>
       </c>
-      <c r="E56" t="s" s="0">
+      <c r="E56" t="s">
         <v>22</v>
       </c>
-      <c r="F56" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s" s="0">
+      <c r="F56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s" s="0">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>19</v>
       </c>
-      <c r="C57" t="s" s="0">
+      <c r="C57" t="s">
         <v>19</v>
       </c>
-      <c r="D57" t="s" s="0">
+      <c r="D57" t="s">
         <v>31</v>
       </c>
-      <c r="E57" t="s" s="0">
+      <c r="E57" t="s">
         <v>22</v>
       </c>
-      <c r="F57" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s" s="0">
+      <c r="F57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>19</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B58" t="s">
         <v>20</v>
       </c>
-      <c r="C58" t="s" s="0">
+      <c r="C58" t="s">
         <v>20</v>
       </c>
-      <c r="D58" t="s" s="0">
+      <c r="D58" t="s">
         <v>21</v>
       </c>
-      <c r="E58" t="s" s="0">
+      <c r="E58" t="s">
         <v>21</v>
       </c>
-      <c r="F58" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s" s="0">
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s" s="0">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
         <v>20</v>
       </c>
-      <c r="C59" t="s" s="0">
+      <c r="C59" t="s">
         <v>19</v>
       </c>
-      <c r="D59" t="s" s="0">
+      <c r="D59" t="s">
         <v>23</v>
       </c>
-      <c r="E59" t="s" s="0">
+      <c r="E59" t="s">
         <v>23</v>
       </c>
-      <c r="F59" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s" s="0">
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s" s="0">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
         <v>24</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C60" t="s">
         <v>24</v>
       </c>
-      <c r="D60" t="s" s="0">
+      <c r="D60" t="s">
         <v>154</v>
       </c>
-      <c r="E60" t="s" s="0">
+      <c r="E60" t="s">
         <v>154</v>
       </c>
-      <c r="F60" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G60" t="s" s="0">
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s" s="0">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
         <v>25</v>
       </c>
-      <c r="D61" t="s" s="0">
+      <c r="D61" t="s">
         <v>154</v>
       </c>
-      <c r="E61" t="s" s="0">
+      <c r="E61" t="s">
         <v>154</v>
       </c>
-      <c r="F61" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G61" t="s" s="0">
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s" s="0">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>19</v>
       </c>
-      <c r="C62" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s" s="0">
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
         <v>154</v>
       </c>
-      <c r="E62" t="s" s="0">
+      <c r="E62" t="s">
         <v>154</v>
       </c>
-      <c r="F62" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s" s="0">
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s" s="0">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
         <v>26</v>
       </c>
-      <c r="C63" t="s" s="0">
+      <c r="C63" t="s">
         <v>27</v>
       </c>
-      <c r="D63" t="s" s="0">
+      <c r="D63" t="s">
         <v>28</v>
       </c>
-      <c r="E63" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s" s="0">
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s" s="0">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>26</v>
       </c>
-      <c r="C64" t="s" s="0">
+      <c r="C64" t="s">
         <v>27</v>
       </c>
-      <c r="D64" t="s" s="0">
+      <c r="D64" t="s">
         <v>28</v>
       </c>
-      <c r="E64" t="s" s="0">
+      <c r="E64" t="s">
         <v>22</v>
       </c>
-      <c r="F64" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s" s="0">
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s" s="0">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
         <v>29</v>
       </c>
-      <c r="C65" t="s" s="0">
+      <c r="C65" t="s">
         <v>29</v>
       </c>
-      <c r="D65" t="s" s="0">
+      <c r="D65" t="s">
         <v>30</v>
       </c>
-      <c r="E65" t="s" s="0">
+      <c r="E65" t="s">
         <v>22</v>
       </c>
-      <c r="F65" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s" s="0">
+      <c r="F65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s" s="0">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>19</v>
       </c>
-      <c r="C66" t="s" s="0">
+      <c r="C66" t="s">
         <v>19</v>
       </c>
-      <c r="D66" t="s" s="0">
+      <c r="D66" t="s">
         <v>31</v>
       </c>
-      <c r="E66" t="s" s="0">
+      <c r="E66" t="s">
         <v>22</v>
       </c>
-      <c r="F66" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s" s="0">
+      <c r="F66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>19</v>
       </c>
-      <c r="B67" t="s" s="0">
+      <c r="B67" t="s">
         <v>20</v>
       </c>
-      <c r="C67" t="s" s="0">
+      <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D67" t="s" s="0">
+      <c r="D67" t="s">
         <v>21</v>
       </c>
-      <c r="E67" t="s" s="0">
+      <c r="E67" t="s">
         <v>21</v>
       </c>
-      <c r="F67" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s" s="0">
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s" s="0">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>20</v>
       </c>
-      <c r="C68" t="s" s="0">
+      <c r="C68" t="s">
         <v>19</v>
       </c>
-      <c r="D68" t="s" s="0">
+      <c r="D68" t="s">
         <v>23</v>
       </c>
-      <c r="E68" t="s" s="0">
+      <c r="E68" t="s">
         <v>23</v>
       </c>
-      <c r="F68" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G68" t="s" s="0">
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s" s="0">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
         <v>24</v>
       </c>
-      <c r="C69" t="s" s="0">
+      <c r="C69" t="s">
         <v>24</v>
       </c>
-      <c r="D69" t="s" s="0">
+      <c r="D69" t="s">
         <v>154</v>
       </c>
-      <c r="E69" t="s" s="0">
+      <c r="E69" t="s">
         <v>154</v>
       </c>
-      <c r="F69" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G69" t="s" s="0">
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s" s="0">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
         <v>25</v>
       </c>
-      <c r="D70" t="s" s="0">
+      <c r="D70" t="s">
         <v>154</v>
       </c>
-      <c r="E70" t="s" s="0">
+      <c r="E70" t="s">
         <v>154</v>
       </c>
-      <c r="F70" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G70" t="s" s="0">
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s" s="0">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
         <v>19</v>
       </c>
-      <c r="C71" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="0">
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
         <v>154</v>
       </c>
-      <c r="E71" t="s" s="0">
+      <c r="E71" t="s">
         <v>154</v>
       </c>
-      <c r="F71" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G71" t="s" s="0">
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s" s="0">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
         <v>26</v>
       </c>
-      <c r="C72" t="s" s="0">
+      <c r="C72" t="s">
         <v>27</v>
       </c>
-      <c r="D72" t="s" s="0">
+      <c r="D72" t="s">
         <v>28</v>
       </c>
-      <c r="E72" t="s" s="0">
+      <c r="E72" t="s">
         <v>158</v>
       </c>
-      <c r="F72" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s" s="0">
+      <c r="F72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s" s="0">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
         <v>29</v>
       </c>
-      <c r="C73" t="s" s="0">
+      <c r="C73" t="s">
         <v>29</v>
       </c>
-      <c r="D73" t="s" s="0">
+      <c r="D73" t="s">
         <v>30</v>
       </c>
-      <c r="E73" t="s" s="0">
+      <c r="E73" t="s">
         <v>30</v>
       </c>
-      <c r="F73" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G73" t="s" s="0">
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s" s="0">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>19</v>
       </c>
-      <c r="C74" t="s" s="0">
+      <c r="C74" t="s">
         <v>19</v>
       </c>
-      <c r="D74" t="s" s="0">
+      <c r="D74" t="s">
         <v>31</v>
       </c>
-      <c r="E74" t="s" s="0">
+      <c r="E74" t="s">
         <v>31</v>
       </c>
-      <c r="F74" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G74" t="s" s="0">
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3148,2209 +3355,2209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="30.453125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="255.6328125"/>
+    <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s" s="0">
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>52</v>
       </c>
-      <c r="J4" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s" s="0">
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>51</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>52</v>
       </c>
-      <c r="J5" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s" s="0">
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s" s="0">
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
         <v>63</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s" s="0">
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
         <v>63</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>63</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>52</v>
       </c>
-      <c r="J8" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s" s="0">
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
         <v>63</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>63</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="M8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s" s="0">
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
         <v>66</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>67</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="M9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>52</v>
       </c>
-      <c r="J10" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s" s="0">
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
         <v>68</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>69</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s" s="0">
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>52</v>
       </c>
-      <c r="J11" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s" s="0">
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
         <v>70</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="L11" t="s">
         <v>69</v>
       </c>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s" s="0">
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
         <v>52</v>
       </c>
-      <c r="J12" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s" s="0">
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
         <v>71</v>
       </c>
-      <c r="L12" t="s" s="0">
+      <c r="L12" t="s">
         <v>67</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>50</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>52</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>72</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="L13" t="s" s="0">
+      <c r="L13" t="s">
         <v>69</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" t="s" s="0">
+      <c r="H14" t="s">
         <v>51</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>52</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>72</v>
       </c>
-      <c r="K14" t="s" s="0">
+      <c r="K14" t="s">
         <v>73</v>
       </c>
-      <c r="L14" t="s" s="0">
+      <c r="L14" t="s">
         <v>53</v>
       </c>
-      <c r="M14" t="s" s="0">
+      <c r="M14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="H15" t="s" s="0">
+      <c r="H15" t="s">
         <v>51</v>
       </c>
-      <c r="I15" t="s" s="0">
+      <c r="I15" t="s">
         <v>52</v>
       </c>
-      <c r="J15" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s" s="0">
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
         <v>53</v>
       </c>
-      <c r="L15" t="s" s="0">
+      <c r="L15" t="s">
         <v>53</v>
       </c>
-      <c r="M15" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s" s="0">
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>51</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>52</v>
       </c>
-      <c r="J16" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s" s="0">
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
         <v>56</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s" s="0">
+      <c r="M16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>50</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>51</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>52</v>
       </c>
-      <c r="J17" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s" s="0">
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
         <v>58</v>
       </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>58</v>
       </c>
-      <c r="M17" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s" s="0">
+      <c r="M17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s" s="0">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>51</v>
       </c>
-      <c r="I18" t="s" s="0">
+      <c r="I18" t="s">
         <v>52</v>
       </c>
-      <c r="J18" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s" s="0">
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
         <v>60</v>
       </c>
-      <c r="L18" t="s" s="0">
+      <c r="L18" t="s">
         <v>82</v>
       </c>
-      <c r="M18" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s" s="0">
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>50</v>
       </c>
-      <c r="H19" t="s" s="0">
+      <c r="H19" t="s">
         <v>51</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="I19" t="s">
         <v>52</v>
       </c>
-      <c r="J19" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K19" t="s" s="0">
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
         <v>63</v>
       </c>
-      <c r="L19" t="s" s="0">
+      <c r="L19" t="s">
         <v>63</v>
       </c>
-      <c r="M19" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s" s="0">
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
-      <c r="H20" t="s" s="0">
+      <c r="H20" t="s">
         <v>51</v>
       </c>
-      <c r="I20" t="s" s="0">
+      <c r="I20" t="s">
         <v>52</v>
       </c>
-      <c r="J20" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s" s="0">
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
         <v>63</v>
       </c>
-      <c r="L20" t="s" s="0">
+      <c r="L20" t="s">
         <v>63</v>
       </c>
-      <c r="M20" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s" s="0">
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>48</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>50</v>
       </c>
-      <c r="H21" t="s" s="0">
+      <c r="H21" t="s">
         <v>51</v>
       </c>
-      <c r="I21" t="s" s="0">
+      <c r="I21" t="s">
         <v>52</v>
       </c>
-      <c r="J21" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s" s="0">
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
         <v>63</v>
       </c>
-      <c r="L21" t="s" s="0">
+      <c r="L21" t="s">
         <v>63</v>
       </c>
-      <c r="M21" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s" s="0">
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s" s="0">
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
         <v>48</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>49</v>
       </c>
-      <c r="G22" t="s" s="0">
+      <c r="G22" t="s">
         <v>50</v>
       </c>
-      <c r="H22" t="s" s="0">
+      <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="I22" t="s" s="0">
+      <c r="I22" t="s">
         <v>52</v>
       </c>
-      <c r="J22" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s" s="0">
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
         <v>88</v>
       </c>
-      <c r="L22" t="s" s="0">
+      <c r="L22" t="s">
         <v>89</v>
       </c>
-      <c r="M22" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s" s="0">
+      <c r="M22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s" s="0">
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" t="s" s="0">
+      <c r="H23" t="s">
         <v>51</v>
       </c>
-      <c r="I23" t="s" s="0">
+      <c r="I23" t="s">
         <v>52</v>
       </c>
-      <c r="J23" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K23" t="s" s="0">
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
         <v>68</v>
       </c>
-      <c r="L23" t="s" s="0">
+      <c r="L23" t="s">
         <v>69</v>
       </c>
-      <c r="M23" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s" s="0">
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>47</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>48</v>
       </c>
-      <c r="F24" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s" s="0">
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
         <v>50</v>
       </c>
-      <c r="H24" t="s" s="0">
+      <c r="H24" t="s">
         <v>51</v>
       </c>
-      <c r="I24" t="s" s="0">
+      <c r="I24" t="s">
         <v>52</v>
       </c>
-      <c r="J24" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s" s="0">
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
         <v>70</v>
       </c>
-      <c r="L24" t="s" s="0">
+      <c r="L24" t="s">
         <v>69</v>
       </c>
-      <c r="M24" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s" s="0">
+      <c r="M24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>47</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="G25" t="s" s="0">
+      <c r="G25" t="s">
         <v>50</v>
       </c>
-      <c r="H25" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s" s="0">
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
         <v>52</v>
       </c>
-      <c r="J25" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s" s="0">
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
         <v>71</v>
       </c>
-      <c r="L25" t="s" s="0">
+      <c r="L25" t="s">
         <v>89</v>
       </c>
-      <c r="M25" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s" s="0">
+      <c r="M25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>74</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>75</v>
       </c>
-      <c r="F26" t="s" s="0">
+      <c r="F26" t="s">
         <v>76</v>
       </c>
-      <c r="G26" t="s" s="0">
+      <c r="G26" t="s">
         <v>77</v>
       </c>
-      <c r="H26" t="s" s="0">
+      <c r="H26" t="s">
         <v>51</v>
       </c>
-      <c r="I26" t="s" s="0">
+      <c r="I26" t="s">
         <v>52</v>
       </c>
-      <c r="J26" t="s" s="0">
+      <c r="J26" t="s">
         <v>72</v>
       </c>
-      <c r="K26" t="s" s="0">
+      <c r="K26" t="s">
         <v>73</v>
       </c>
-      <c r="L26" t="s" s="0">
+      <c r="L26" t="s">
         <v>69</v>
       </c>
-      <c r="M26" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s" s="0">
+      <c r="M26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>48</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>49</v>
       </c>
-      <c r="G27" t="s" s="0">
+      <c r="G27" t="s">
         <v>50</v>
       </c>
-      <c r="H27" t="s" s="0">
+      <c r="H27" t="s">
         <v>51</v>
       </c>
-      <c r="I27" t="s" s="0">
+      <c r="I27" t="s">
         <v>52</v>
       </c>
-      <c r="J27" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s" s="0">
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
         <v>53</v>
       </c>
-      <c r="L27" t="s" s="0">
+      <c r="L27" t="s">
         <v>95</v>
       </c>
-      <c r="M27" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s" s="0">
+      <c r="M27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>48</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>49</v>
       </c>
-      <c r="G28" t="s" s="0">
+      <c r="G28" t="s">
         <v>50</v>
       </c>
-      <c r="H28" t="s" s="0">
+      <c r="H28" t="s">
         <v>51</v>
       </c>
-      <c r="I28" t="s" s="0">
+      <c r="I28" t="s">
         <v>52</v>
       </c>
-      <c r="J28" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s" s="0">
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
         <v>53</v>
       </c>
-      <c r="L28" t="s" s="0">
+      <c r="L28" t="s">
         <v>53</v>
       </c>
-      <c r="M28" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s" s="0">
+      <c r="M28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s" s="0">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="D29" t="s">
         <v>47</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>49</v>
       </c>
-      <c r="G29" t="s" s="0">
+      <c r="G29" t="s">
         <v>50</v>
       </c>
-      <c r="H29" t="s" s="0">
+      <c r="H29" t="s">
         <v>51</v>
       </c>
-      <c r="I29" t="s" s="0">
+      <c r="I29" t="s">
         <v>52</v>
       </c>
-      <c r="J29" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s" s="0">
+      <c r="J29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
         <v>56</v>
       </c>
-      <c r="L29" t="s" s="0">
+      <c r="L29" t="s">
         <v>56</v>
       </c>
-      <c r="M29" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s" s="0">
+      <c r="M29" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s" s="0">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>49</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="G30" t="s">
         <v>50</v>
       </c>
-      <c r="H30" t="s" s="0">
+      <c r="H30" t="s">
         <v>51</v>
       </c>
-      <c r="I30" t="s" s="0">
+      <c r="I30" t="s">
         <v>52</v>
       </c>
-      <c r="J30" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s" s="0">
+      <c r="J30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
         <v>58</v>
       </c>
-      <c r="L30" t="s" s="0">
+      <c r="L30" t="s">
         <v>58</v>
       </c>
-      <c r="M30" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s" s="0">
+      <c r="M30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="0">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>48</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>49</v>
       </c>
-      <c r="G31" t="s" s="0">
+      <c r="G31" t="s">
         <v>50</v>
       </c>
-      <c r="H31" t="s" s="0">
+      <c r="H31" t="s">
         <v>51</v>
       </c>
-      <c r="I31" t="s" s="0">
+      <c r="I31" t="s">
         <v>52</v>
       </c>
-      <c r="J31" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s" s="0">
+      <c r="J31" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
         <v>60</v>
       </c>
-      <c r="L31" t="s" s="0">
+      <c r="L31" t="s">
         <v>53</v>
       </c>
-      <c r="M31" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s" s="0">
+      <c r="M31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>84</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>47</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>48</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>49</v>
       </c>
-      <c r="G32" t="s" s="0">
+      <c r="G32" t="s">
         <v>50</v>
       </c>
-      <c r="H32" t="s" s="0">
+      <c r="H32" t="s">
         <v>51</v>
       </c>
-      <c r="I32" t="s" s="0">
+      <c r="I32" t="s">
         <v>52</v>
       </c>
-      <c r="J32" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K32" t="s" s="0">
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
         <v>63</v>
       </c>
-      <c r="L32" t="s" s="0">
+      <c r="L32" t="s">
         <v>101</v>
       </c>
-      <c r="M32" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s" s="0">
+      <c r="M32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>64</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>47</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>48</v>
       </c>
-      <c r="F33" t="s" s="0">
+      <c r="F33" t="s">
         <v>49</v>
       </c>
-      <c r="G33" t="s" s="0">
+      <c r="G33" t="s">
         <v>50</v>
       </c>
-      <c r="H33" t="s" s="0">
+      <c r="H33" t="s">
         <v>51</v>
       </c>
-      <c r="I33" t="s" s="0">
+      <c r="I33" t="s">
         <v>52</v>
       </c>
-      <c r="J33" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K33" t="s" s="0">
+      <c r="J33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
         <v>63</v>
       </c>
-      <c r="L33" t="s" s="0">
+      <c r="L33" t="s">
         <v>63</v>
       </c>
-      <c r="M33" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s" s="0">
+      <c r="M33" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>47</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>48</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>49</v>
       </c>
-      <c r="G34" t="s" s="0">
+      <c r="G34" t="s">
         <v>50</v>
       </c>
-      <c r="H34" t="s" s="0">
+      <c r="H34" t="s">
         <v>51</v>
       </c>
-      <c r="I34" t="s" s="0">
+      <c r="I34" t="s">
         <v>52</v>
       </c>
-      <c r="J34" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K34" t="s" s="0">
+      <c r="J34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
         <v>63</v>
       </c>
-      <c r="L34" t="s" s="0">
+      <c r="L34" t="s">
         <v>63</v>
       </c>
-      <c r="M34" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s" s="0">
+      <c r="M34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>57</v>
       </c>
-      <c r="D35" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s" s="0">
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
         <v>48</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="F35" t="s">
         <v>49</v>
       </c>
-      <c r="G35" t="s" s="0">
+      <c r="G35" t="s">
         <v>50</v>
       </c>
-      <c r="H35" t="s" s="0">
+      <c r="H35" t="s">
         <v>51</v>
       </c>
-      <c r="I35" t="s" s="0">
+      <c r="I35" t="s">
         <v>52</v>
       </c>
-      <c r="J35" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K35" t="s" s="0">
+      <c r="J35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s">
         <v>88</v>
       </c>
-      <c r="L35" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="M35" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s" s="0">
+      <c r="L35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D36" t="s">
         <v>47</v>
       </c>
-      <c r="E36" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s" s="0">
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
         <v>49</v>
       </c>
-      <c r="G36" t="s" s="0">
+      <c r="G36" t="s">
         <v>50</v>
       </c>
-      <c r="H36" t="s" s="0">
+      <c r="H36" t="s">
         <v>51</v>
       </c>
-      <c r="I36" t="s" s="0">
+      <c r="I36" t="s">
         <v>52</v>
       </c>
-      <c r="J36" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K36" t="s" s="0">
+      <c r="J36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s">
         <v>68</v>
       </c>
-      <c r="L36" t="s" s="0">
+      <c r="L36" t="s">
         <v>106</v>
       </c>
-      <c r="M36" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s" s="0">
+      <c r="M36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="D37" t="s" s="0">
+      <c r="D37" t="s">
         <v>47</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="E37" t="s">
         <v>48</v>
       </c>
-      <c r="F37" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s" s="0">
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
         <v>50</v>
       </c>
-      <c r="H37" t="s" s="0">
+      <c r="H37" t="s">
         <v>51</v>
       </c>
-      <c r="I37" t="s" s="0">
+      <c r="I37" t="s">
         <v>52</v>
       </c>
-      <c r="J37" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K37" t="s" s="0">
+      <c r="J37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
         <v>70</v>
       </c>
-      <c r="L37" t="s" s="0">
+      <c r="L37" t="s">
         <v>69</v>
       </c>
-      <c r="M37" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s" s="0">
+      <c r="M37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="C38" t="s">
         <v>57</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="E38" t="s">
         <v>48</v>
       </c>
-      <c r="F38" t="s" s="0">
+      <c r="F38" t="s">
         <v>49</v>
       </c>
-      <c r="G38" t="s" s="0">
+      <c r="G38" t="s">
         <v>50</v>
       </c>
-      <c r="H38" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s" s="0">
+      <c r="H38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
         <v>52</v>
       </c>
-      <c r="J38" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K38" t="s" s="0">
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
         <v>89</v>
       </c>
-      <c r="L38" t="s" s="0">
+      <c r="L38" t="s">
         <v>89</v>
       </c>
-      <c r="M38" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s" s="0">
+      <c r="M38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" t="s" s="0">
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" t="s" s="0">
+      <c r="D39" t="s">
         <v>74</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="E39" t="s">
         <v>75</v>
       </c>
-      <c r="F39" t="s" s="0">
+      <c r="F39" t="s">
         <v>76</v>
       </c>
-      <c r="G39" t="s" s="0">
+      <c r="G39" t="s">
         <v>77</v>
       </c>
-      <c r="H39" t="s" s="0">
+      <c r="H39" t="s">
         <v>51</v>
       </c>
-      <c r="I39" t="s" s="0">
+      <c r="I39" t="s">
         <v>52</v>
       </c>
-      <c r="J39" t="s" s="0">
+      <c r="J39" t="s">
         <v>72</v>
       </c>
-      <c r="K39" t="s" s="0">
+      <c r="K39" t="s">
         <v>73</v>
       </c>
-      <c r="L39" t="s" s="0">
+      <c r="L39" t="s">
         <v>53</v>
       </c>
-      <c r="M39" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s" s="0">
+      <c r="M39" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="D40" t="s" s="0">
+      <c r="D40" t="s">
         <v>47</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="E40" t="s">
         <v>48</v>
       </c>
-      <c r="F40" t="s" s="0">
+      <c r="F40" t="s">
         <v>49</v>
       </c>
-      <c r="G40" t="s" s="0">
+      <c r="G40" t="s">
         <v>50</v>
       </c>
-      <c r="H40" t="s" s="0">
+      <c r="H40" t="s">
         <v>51</v>
       </c>
-      <c r="I40" t="s" s="0">
+      <c r="I40" t="s">
         <v>52</v>
       </c>
-      <c r="J40" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K40" t="s" s="0">
+      <c r="J40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
         <v>53</v>
       </c>
-      <c r="L40" t="s" s="0">
+      <c r="L40" t="s">
         <v>53</v>
       </c>
-      <c r="M40" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s" s="0">
+      <c r="M40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>54</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s" s="0">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
         <v>55</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="E41" t="s" s="0">
+      <c r="E41" t="s">
         <v>48</v>
       </c>
-      <c r="F41" t="s" s="0">
+      <c r="F41" t="s">
         <v>49</v>
       </c>
-      <c r="G41" t="s" s="0">
+      <c r="G41" t="s">
         <v>50</v>
       </c>
-      <c r="H41" t="s" s="0">
+      <c r="H41" t="s">
         <v>51</v>
       </c>
-      <c r="I41" t="s" s="0">
+      <c r="I41" t="s">
         <v>52</v>
       </c>
-      <c r="J41" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K41" t="s" s="0">
+      <c r="J41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" t="s">
         <v>56</v>
       </c>
-      <c r="L41" t="s" s="0">
+      <c r="L41" t="s">
         <v>56</v>
       </c>
-      <c r="M41" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s" s="0">
+      <c r="M41" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s" s="0">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="C42" t="s">
         <v>57</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>47</v>
       </c>
-      <c r="E42" t="s" s="0">
+      <c r="E42" t="s">
         <v>48</v>
       </c>
-      <c r="F42" t="s" s="0">
+      <c r="F42" t="s">
         <v>49</v>
       </c>
-      <c r="G42" t="s" s="0">
+      <c r="G42" t="s">
         <v>50</v>
       </c>
-      <c r="H42" t="s" s="0">
+      <c r="H42" t="s">
         <v>51</v>
       </c>
-      <c r="I42" t="s" s="0">
+      <c r="I42" t="s">
         <v>52</v>
       </c>
-      <c r="J42" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K42" t="s" s="0">
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s">
         <v>58</v>
       </c>
-      <c r="L42" t="s" s="0">
+      <c r="L42" t="s">
         <v>58</v>
       </c>
-      <c r="M42" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s" s="0">
+      <c r="M42" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>54</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s" s="0">
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="E43" t="s" s="0">
+      <c r="E43" t="s">
         <v>48</v>
       </c>
-      <c r="F43" t="s" s="0">
+      <c r="F43" t="s">
         <v>49</v>
       </c>
-      <c r="G43" t="s" s="0">
+      <c r="G43" t="s">
         <v>50</v>
       </c>
-      <c r="H43" t="s" s="0">
+      <c r="H43" t="s">
         <v>51</v>
       </c>
-      <c r="I43" t="s" s="0">
+      <c r="I43" t="s">
         <v>52</v>
       </c>
-      <c r="J43" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K43" t="s" s="0">
+      <c r="J43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
         <v>60</v>
       </c>
-      <c r="L43" t="s" s="0">
+      <c r="L43" t="s">
         <v>114</v>
       </c>
-      <c r="M43" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s" s="0">
+      <c r="M43" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>54</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="C44" t="s">
         <v>84</v>
       </c>
-      <c r="D44" t="s" s="0">
+      <c r="D44" t="s">
         <v>47</v>
       </c>
-      <c r="E44" t="s" s="0">
+      <c r="E44" t="s">
         <v>48</v>
       </c>
-      <c r="F44" t="s" s="0">
+      <c r="F44" t="s">
         <v>49</v>
       </c>
-      <c r="G44" t="s" s="0">
+      <c r="G44" t="s">
         <v>50</v>
       </c>
-      <c r="H44" t="s" s="0">
+      <c r="H44" t="s">
         <v>51</v>
       </c>
-      <c r="I44" t="s" s="0">
+      <c r="I44" t="s">
         <v>52</v>
       </c>
-      <c r="J44" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K44" t="s" s="0">
+      <c r="J44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
         <v>63</v>
       </c>
-      <c r="L44" t="s" s="0">
+      <c r="L44" t="s">
         <v>63</v>
       </c>
-      <c r="M44" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s" s="0">
+      <c r="M44" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" t="s" s="0">
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-      <c r="D45" t="s" s="0">
+      <c r="D45" t="s">
         <v>47</v>
       </c>
-      <c r="E45" t="s" s="0">
+      <c r="E45" t="s">
         <v>48</v>
       </c>
-      <c r="F45" t="s" s="0">
+      <c r="F45" t="s">
         <v>49</v>
       </c>
-      <c r="G45" t="s" s="0">
+      <c r="G45" t="s">
         <v>50</v>
       </c>
-      <c r="H45" t="s" s="0">
+      <c r="H45" t="s">
         <v>51</v>
       </c>
-      <c r="I45" t="s" s="0">
+      <c r="I45" t="s">
         <v>52</v>
       </c>
-      <c r="J45" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K45" t="s" s="0">
+      <c r="J45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
         <v>63</v>
       </c>
-      <c r="L45" t="s" s="0">
+      <c r="L45" t="s">
         <v>63</v>
       </c>
-      <c r="M45" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s" s="0">
+      <c r="M45" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" t="s" s="0">
+      <c r="C46" t="s">
         <v>65</v>
       </c>
-      <c r="D46" t="s" s="0">
+      <c r="D46" t="s">
         <v>47</v>
       </c>
-      <c r="E46" t="s" s="0">
+      <c r="E46" t="s">
         <v>48</v>
       </c>
-      <c r="F46" t="s" s="0">
+      <c r="F46" t="s">
         <v>49</v>
       </c>
-      <c r="G46" t="s" s="0">
+      <c r="G46" t="s">
         <v>50</v>
       </c>
-      <c r="H46" t="s" s="0">
+      <c r="H46" t="s">
         <v>51</v>
       </c>
-      <c r="I46" t="s" s="0">
+      <c r="I46" t="s">
         <v>52</v>
       </c>
-      <c r="J46" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K46" t="s" s="0">
+      <c r="J46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" t="s">
         <v>63</v>
       </c>
-      <c r="L46" t="s" s="0">
+      <c r="L46" t="s">
         <v>63</v>
       </c>
-      <c r="M46" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s" s="0">
+      <c r="M46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="C47" t="s">
         <v>57</v>
       </c>
-      <c r="D47" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s" s="0">
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
         <v>48</v>
       </c>
-      <c r="F47" t="s" s="0">
+      <c r="F47" t="s">
         <v>49</v>
       </c>
-      <c r="G47" t="s" s="0">
+      <c r="G47" t="s">
         <v>50</v>
       </c>
-      <c r="H47" t="s" s="0">
+      <c r="H47" t="s">
         <v>51</v>
       </c>
-      <c r="I47" t="s" s="0">
+      <c r="I47" t="s">
         <v>52</v>
       </c>
-      <c r="J47" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K47" t="s" s="0">
+      <c r="J47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
         <v>88</v>
       </c>
-      <c r="L47" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="M47" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s" s="0">
+      <c r="L47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="C48" t="s" s="0">
+      <c r="C48" t="s">
         <v>57</v>
       </c>
-      <c r="D48" t="s" s="0">
+      <c r="D48" t="s">
         <v>47</v>
       </c>
-      <c r="E48" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s" s="0">
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
         <v>49</v>
       </c>
-      <c r="G48" t="s" s="0">
+      <c r="G48" t="s">
         <v>50</v>
       </c>
-      <c r="H48" t="s" s="0">
+      <c r="H48" t="s">
         <v>51</v>
       </c>
-      <c r="I48" t="s" s="0">
+      <c r="I48" t="s">
         <v>52</v>
       </c>
-      <c r="J48" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K48" t="s" s="0">
+      <c r="J48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s">
         <v>68</v>
       </c>
-      <c r="L48" t="s" s="0">
+      <c r="L48" t="s">
         <v>106</v>
       </c>
-      <c r="M48" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s" s="0">
+      <c r="M48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" t="s" s="0">
+      <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" t="s" s="0">
+      <c r="C49" t="s">
         <v>57</v>
       </c>
-      <c r="D49" t="s" s="0">
+      <c r="D49" t="s">
         <v>47</v>
       </c>
-      <c r="E49" t="s" s="0">
+      <c r="E49" t="s">
         <v>48</v>
       </c>
-      <c r="F49" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="G49" t="s" s="0">
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
         <v>50</v>
       </c>
-      <c r="H49" t="s" s="0">
+      <c r="H49" t="s">
         <v>51</v>
       </c>
-      <c r="I49" t="s" s="0">
+      <c r="I49" t="s">
         <v>52</v>
       </c>
-      <c r="J49" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K49" t="s" s="0">
+      <c r="J49" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s">
         <v>70</v>
       </c>
-      <c r="L49" t="s" s="0">
+      <c r="L49" t="s">
         <v>121</v>
       </c>
-      <c r="M49" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s" s="0">
+      <c r="M49" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" t="s" s="0">
+      <c r="C50" t="s">
         <v>57</v>
       </c>
-      <c r="D50" t="s" s="0">
+      <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="E50" t="s" s="0">
+      <c r="E50" t="s">
         <v>48</v>
       </c>
-      <c r="F50" t="s" s="0">
+      <c r="F50" t="s">
         <v>49</v>
       </c>
-      <c r="G50" t="s" s="0">
+      <c r="G50" t="s">
         <v>50</v>
       </c>
-      <c r="H50" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="I50" t="s" s="0">
+      <c r="H50" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
         <v>52</v>
       </c>
-      <c r="J50" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="K50" t="s" s="0">
+      <c r="J50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
         <v>89</v>
       </c>
-      <c r="L50" t="s" s="0">
+      <c r="L50" t="s">
         <v>89</v>
       </c>
-      <c r="M50" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s" s="0">
+      <c r="M50" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" t="s" s="0">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B51" t="s">
         <v>4</v>
       </c>
-      <c r="C51" t="s" s="0">
+      <c r="C51" t="s">
         <v>46</v>
       </c>
-      <c r="D51" t="s" s="0">
+      <c r="D51" t="s">
         <v>74</v>
       </c>
-      <c r="E51" t="s" s="0">
+      <c r="E51" t="s">
         <v>75</v>
       </c>
-      <c r="F51" t="s" s="0">
+      <c r="F51" t="s">
         <v>76</v>
       </c>
-      <c r="G51" t="s" s="0">
+      <c r="G51" t="s">
         <v>77</v>
       </c>
-      <c r="H51" t="s" s="0">
+      <c r="H51" t="s">
         <v>51</v>
       </c>
-      <c r="I51" t="s" s="0">
+      <c r="I51" t="s">
         <v>52</v>
       </c>
-      <c r="J51" t="s" s="0">
+      <c r="J51" t="s">
         <v>72</v>
       </c>
-      <c r="K51" t="s" s="0">
+      <c r="K51" t="s">
         <v>73</v>
       </c>
-      <c r="L51" t="s" s="0">
+      <c r="L51" t="s">
         <v>53</v>
       </c>
-      <c r="M51" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s" s="0">
+      <c r="M51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5369,126 +5576,126 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="5" width="32.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>148</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>150</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>150</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>151</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>150</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>150</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>153</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>149</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>154</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>154</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>155</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>154</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>156</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>157</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/target/test-classes/Test_Results.xlsx
+++ b/target/test-classes/Test_Results.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D78939-C804-4D66-B320-23BDB958E643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12785EDE-4534-4986-AC24-82813C88ABB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="339">
   <si>
     <t>Fail</t>
   </si>
@@ -712,11 +712,381 @@
   <si>
     <t>2025-06-17T12:36:09.228514400</t>
   </si>
+  <si>
+    <t>2025-06-17 12:48:24</t>
+  </si>
+  <si>
+    <t>2025-06-17 12:48:35</t>
+  </si>
+  <si>
+    <t>2025-06-17 12:48:36</t>
+  </si>
+  <si>
+    <t>2025-06-17 12:48:37</t>
+  </si>
+  <si>
+    <t>2025-06-17 12:48:39</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:28:31.892525500</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |  |  |  | </t>
+  </si>
+  <si>
+    <t>2025-06-17T19:28:35.079025700</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:28:37.078926300</t>
+  </si>
+  <si>
+    <t>abcdefghiklmnoooaaaabcdsedght</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:28:39.013629600</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:28:41.407486100</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:28:43.816405600</t>
+  </si>
+  <si>
+    <t>set quà tặng nến thơm nắng mai</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:28:46.228238700</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:28:47.746127700</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:38:34.529515800</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:38:37.554168500</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:38:40.192268800</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:38:43.570916900</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:38:45.771899700</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:38:47.746278700</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:38:49.239376800</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:40:51.857749400</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:40:54.716096100</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:40:58.204630100</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:41:01.126582800</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:41:02.719945800</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:41:04.321186100</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:53:44.126211900</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:53:46.825983800</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:53:50.211728700</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:53:52.977332800</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:53:54.665646100</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:53:56.360438</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:57:55.623275400</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:58:02.627516900</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:58:09.663933200</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:58:17.141989200</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:58:24.044214800</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:58:30.258567200</t>
+  </si>
+  <si>
+    <t>2025-06-17T19:58:36.374998700</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:01:19.956888100</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |  |  |  |  | Set quà tặng nến thơm Tỏa Sáng | Set quà tặng nến thơm Nắng Mai | Set quà tặng Dịu Nồng | Set quà tặng nến thơm Thiên Hương | Nến thơm Cuộn len | Nến thơm Rubik | Tinh dầu 10ml nhóm hương Gỗ | Tinh dầu 10ml nhóm hương Dessert | Nhiều nến thơm Tealight | Tinh dầu 10ml nhóm hương Hoa | Tinh dầu 10ml nhóm hương Tươi mát | Nến thơm bánh kem Teddy Sleepy | Workshop doanh nghiệp | Workshop nến thơm tại Dipsoul</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:01:27.309225700</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:01:34.655979300</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:01:41.960869300</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:01:48.694268200</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:01:55.327503</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:02:01.320635600</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:12:52.467520100</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:12:59.625704800</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:13:06.131810800</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:13:12.730867700</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:13:19.634057800</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:13:26.519672700</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:13:32.564551900</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:14:55.585609200</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:15:02.072013300</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:15:08.809807400</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:15:15.630377900</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:15:21.817802100</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:15:28.349489200</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:15:34.635063</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:17:25.128473700</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:17:31.804808200</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:17:38.634505300</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:17:45.111125800</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:17:51.845434500</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:17:57.793993700</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:18:03.942931400</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:22:40.308321800</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:22:46.825372</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:22:52.996046</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:22:59.459929500</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:23:05.623024600</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:23:11.490575800</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:23:17.323759600</t>
+  </si>
+  <si>
+    <t>:))</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:23:23.574437200</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:23:29.868362100</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:33:59.439708300</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:34:06.631024800</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:34:12.773126500</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:34:19.349406100</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:34:25.422175400</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:34:31.079045300</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:34:36.873015700</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:34:43.113500600</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:41:43.993617400</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:41:50.691808700</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:41:57.577023900</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:42:04.446477900</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:42:10.965916600</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:42:16.760263600</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:42:22.610711600</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:42:28.477209700</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:46:00.009022200</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:46:06.380612500</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:46:13.022998400</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:46:19.774474</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:46:26.391547200</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:46:32.270461800</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:46:38.443308900</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:46:44.274233900</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:52:47.454107900</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:52:54.287271600</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:53:00.685521</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:53:07.087245500</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:53:13.676693</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:53:19.565478200</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:53:25.659075100</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:53:31.610875200</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:58:02.984696800</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:58:09.933169</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:58:15.999801500</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:58:22.577323500</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:58:29.016678600</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:58:34.780173300</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:58:40.467543900</t>
+  </si>
+  <si>
+    <t>2025-06-17T20:58:46.474779600</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,8 +1116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,486 +1401,2373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.453125"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="44.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s" s="0">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s" s="0">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s" s="0">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="A67" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -1519,1824 +3779,1824 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="56.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="56.90625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s" s="0">
         <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s" s="0">
         <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s" s="0">
         <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s" s="0">
         <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s" s="0">
         <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s" s="0">
         <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s" s="0">
         <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s" s="0">
         <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s" s="0">
         <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="F47" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F47" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s" s="0">
         <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="F49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s" s="0">
         <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="F50" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s" s="0">
         <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F51" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="F51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s" s="0">
         <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="F52" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F53" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F53" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s" s="0">
         <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F54" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s" s="0">
         <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s" s="0">
         <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F56" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F56" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s" s="0">
         <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F57" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s" s="0">
         <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s" s="0">
         <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s" s="0">
         <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s" s="0">
         <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F61" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F61" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s" s="0">
         <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F62" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s" s="0">
         <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E63" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="E63" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s" s="0">
         <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F64" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F64" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s" s="0">
         <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F65" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F65" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s" s="0">
         <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F66" t="s">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F66" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s" s="0">
         <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="F67" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F68" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="F68" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s" s="0">
         <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F69" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="F69" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s" s="0">
         <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F70" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F70" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s" s="0">
         <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F71" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s" s="0">
         <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="F72" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s" s="0">
         <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F73" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F73" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s" s="0">
         <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="F74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s" s="0">
         <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F75" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F75" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s" s="0">
         <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F76" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F76" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s" s="0">
         <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F77" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F77" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s" s="0">
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B78" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F78" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="F78" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s" s="0">
         <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F79" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F79" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s" s="0">
         <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="F80" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F81" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s" s="0">
         <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="F82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s" s="0">
         <v>215</v>
       </c>
     </row>
@@ -3355,2209 +5615,2209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.453125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="255.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="M15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="M16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="M17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="M17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="M18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="M18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M21" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="M21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="M22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="M22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J23" t="s">
-        <v>2</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="M25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="M26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J27" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J27" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="M27" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="M27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="J28" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M28" t="s">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="M28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M29" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="M29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="J30" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="M30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="M30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s" s="0">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J31" t="s">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="J31" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="M31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="J32" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="M32" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="M32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="J33" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M33" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="M33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s" s="0">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="J34" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M34" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="M34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="J35" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="L35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="L35" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s" s="0">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="J36" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="M36" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s" s="0">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="J37" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M37" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="M38" t="s">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="M38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s" s="0">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="M39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="J40" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M40" t="s">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="M40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="J41" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K41" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="M41" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="M41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="J42" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="M42" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="M42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="J43" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="M43" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="M43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J44" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="J44" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M44" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="M44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J45" t="s">
-        <v>2</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="J45" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M45" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="M45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J46" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K46" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="M46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="M46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J47" t="s">
-        <v>2</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="J47" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="L47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M47" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="L47" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s" s="0">
         <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J48" t="s">
-        <v>2</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="J48" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="M48" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="M48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F49" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J49" t="s">
-        <v>2</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="J49" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="M49" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="M49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H50" t="s">
-        <v>2</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J50" t="s">
-        <v>2</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="J50" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="M50" t="s">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="M50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s" s="0">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="M51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s" s="0">
         <v>124</v>
       </c>
     </row>
@@ -5568,134 +7828,235 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="32.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>5</v>
       </c>
     </row>
